--- a/posesiones/1381272.xlsx
+++ b/posesiones/1381272.xlsx
@@ -1826,10 +1826,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2020,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>6</v>
@@ -2073,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>16</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>7</v>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2367,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14">
         <v>26</v>
@@ -2420,7 +2420,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15">
         <v>13</v>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2520,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R17">
         <v>22</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2623,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R19">
         <v>11</v>
@@ -2676,7 +2676,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R20">
         <v>21</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2779,7 +2779,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R22">
         <v>14</v>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3067,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3167,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R30">
         <v>35</v>
@@ -3220,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R31">
         <v>9</v>
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3320,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R33">
         <v>16</v>
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3420,7 +3420,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R35">
         <v>12</v>
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3520,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R37">
         <v>18</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3620,7 +3620,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R39">
         <v>18</v>
@@ -3673,7 +3673,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R40">
         <v>8</v>
@@ -3726,7 +3726,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R41">
         <v>10</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3829,7 +3829,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R43">
         <v>12</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3929,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R45">
         <v>23</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4029,7 +4029,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R47">
         <v>9</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4132,7 +4132,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R49">
         <v>22</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4232,7 +4232,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R51">
         <v>5</v>
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4426,7 +4426,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R55">
         <v>33</v>
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4529,7 +4529,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R57">
         <v>9</v>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4629,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R59">
         <v>15</v>
@@ -4682,7 +4682,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R60">
         <v>11</v>
@@ -4735,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4785,7 +4785,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R62">
         <v>21</v>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4885,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R64">
         <v>15</v>
@@ -4935,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4982,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5079,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5179,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R70">
         <v>33</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5367,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5414,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5464,7 +5464,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R76">
         <v>7</v>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5561,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5655,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5749,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5796,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5846,7 +5846,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R84">
         <v>23</v>
@@ -5899,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5993,7 +5993,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6137,7 +6137,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R90">
         <v>29</v>
@@ -6187,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6284,7 +6284,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R93">
         <v>12</v>
@@ -6334,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6428,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6525,7 +6525,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R98">
         <v>0</v>
@@ -6578,7 +6578,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R99">
         <v>20</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6681,7 +6681,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R101">
         <v>3</v>
@@ -6734,7 +6734,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R102">
         <v>4</v>
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6834,7 +6834,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R104">
         <v>23</v>
@@ -6884,7 +6884,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6978,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7025,7 +7025,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7072,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7169,7 +7169,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R111">
         <v>7</v>
@@ -7225,7 +7225,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R112">
         <v>2</v>
@@ -7269,10 +7269,10 @@
         <v>1</v>
       </c>
       <c r="P113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q113">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7319,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7366,7 +7366,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7413,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7460,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7507,7 +7507,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7554,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7783,10 +7783,10 @@
         <v>1</v>
       </c>
       <c r="P124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q124">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7833,7 +7833,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7886,7 +7886,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R126">
         <v>14</v>
@@ -7936,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -7986,7 +7986,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R128">
         <v>18</v>
@@ -8036,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8083,7 +8083,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8133,7 +8133,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R131">
         <v>26</v>
@@ -8183,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8280,7 +8280,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R134">
         <v>12</v>
@@ -8333,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8427,7 +8427,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8521,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8571,7 +8571,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R140">
         <v>6</v>
@@ -8618,7 +8618,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8665,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8759,7 +8759,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8806,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8856,7 +8856,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8906,7 +8906,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R147">
         <v>20</v>
@@ -8959,7 +8959,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R148">
         <v>8</v>
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9059,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R150">
         <v>24</v>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9159,7 +9159,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9206,7 +9206,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9253,7 +9253,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9300,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9347,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9394,7 +9394,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9441,7 +9441,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9491,7 +9491,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R159">
         <v>31</v>
@@ -9544,7 +9544,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R160">
         <v>17</v>
@@ -9597,7 +9597,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9647,7 +9647,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R162">
         <v>16</v>
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9747,7 +9747,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R164">
         <v>20</v>
@@ -9800,7 +9800,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9850,7 +9850,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R166">
         <v>21</v>
@@ -9900,7 +9900,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9947,7 +9947,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10041,7 +10041,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10088,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10138,7 +10138,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R172">
         <v>24</v>
@@ -10191,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10285,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10332,7 +10332,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10379,7 +10379,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10429,7 +10429,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R178">
         <v>19</v>
@@ -10479,7 +10479,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10529,7 +10529,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R180">
         <v>29</v>
@@ -10582,7 +10582,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10632,7 +10632,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R182">
         <v>9</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10773,7 +10773,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10823,7 +10823,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R186">
         <v>16</v>
@@ -10876,7 +10876,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10926,7 +10926,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R188">
         <v>15</v>
@@ -10976,7 +10976,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11023,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11070,7 +11070,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11120,7 +11120,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R192">
         <v>35</v>
@@ -11170,7 +11170,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11220,7 +11220,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R194">
         <v>15</v>
@@ -11273,7 +11273,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11323,7 +11323,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R196">
         <v>24</v>
@@ -11376,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11470,7 +11470,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11517,7 +11517,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11567,7 +11567,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R201">
         <v>4</v>
@@ -11620,7 +11620,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R202">
         <v>16</v>
@@ -11673,7 +11673,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11723,7 +11723,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R204">
         <v>7</v>
@@ -11773,7 +11773,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11823,7 +11823,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11873,7 +11873,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R207">
         <v>19</v>
@@ -11926,7 +11926,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -11976,7 +11976,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R209">
         <v>10</v>
@@ -12029,7 +12029,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12079,7 +12079,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R211">
         <v>26</v>
@@ -12132,7 +12132,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12182,7 +12182,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R213">
         <v>5</v>
@@ -12232,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12282,7 +12282,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12329,7 +12329,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12376,7 +12376,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12426,7 +12426,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R218">
         <v>44</v>
@@ -12479,7 +12479,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12529,7 +12529,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R220">
         <v>19</v>
@@ -12579,7 +12579,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12626,7 +12626,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12673,7 +12673,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12720,7 +12720,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12767,7 +12767,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12814,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12861,7 +12861,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12908,7 +12908,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12958,7 +12958,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R229">
         <v>22</v>
@@ -13011,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13058,7 +13058,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13105,7 +13105,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13152,7 +13152,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13202,7 +13202,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R234">
         <v>6</v>
@@ -13255,7 +13255,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R235">
         <v>2</v>
@@ -13299,10 +13299,10 @@
         <v>1</v>
       </c>
       <c r="P236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q236">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13349,7 +13349,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13396,7 +13396,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13443,7 +13443,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13490,7 +13490,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13537,7 +13537,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13584,7 +13584,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13678,7 +13678,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13725,7 +13725,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13772,7 +13772,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13813,10 +13813,10 @@
         <v>1</v>
       </c>
       <c r="P247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q247">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13866,7 +13866,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R248">
         <v>10</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -13963,7 +13963,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14013,7 +14013,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R251">
         <v>0</v>
@@ -14066,7 +14066,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R252">
         <v>16</v>
@@ -14119,7 +14119,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14169,7 +14169,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R254">
         <v>22</v>
@@ -14219,7 +14219,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14269,7 +14269,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R256">
         <v>15</v>
@@ -14319,7 +14319,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14369,7 +14369,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R258">
         <v>18</v>
@@ -14419,7 +14419,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14469,7 +14469,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14519,7 +14519,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R261">
         <v>6</v>
@@ -14569,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14619,7 +14619,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R263">
         <v>15</v>
@@ -14672,7 +14672,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14719,7 +14719,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14766,7 +14766,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14816,7 +14816,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R267">
         <v>16</v>
@@ -14866,7 +14866,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14916,7 +14916,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R269">
         <v>20</v>
@@ -14969,7 +14969,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15019,7 +15019,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R271">
         <v>8</v>
@@ -15069,7 +15069,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15119,7 +15119,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R273">
         <v>16</v>
@@ -15172,7 +15172,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R274">
         <v>16</v>
@@ -15225,7 +15225,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15275,7 +15275,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R276">
         <v>25</v>
@@ -15328,7 +15328,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15378,7 +15378,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R278">
         <v>9</v>
@@ -15428,7 +15428,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15478,7 +15478,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R280">
         <v>17</v>
@@ -15528,7 +15528,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15578,7 +15578,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R282">
         <v>4</v>
@@ -15628,7 +15628,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15678,7 +15678,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R284">
         <v>10</v>
@@ -15731,7 +15731,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15781,7 +15781,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R286">
         <v>10</v>
@@ -15831,7 +15831,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15922,7 +15922,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15969,7 +15969,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16016,7 +16016,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16063,7 +16063,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16113,7 +16113,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R293">
         <v>7</v>
@@ -16166,7 +16166,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16216,7 +16216,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R295">
         <v>10</v>
@@ -16266,7 +16266,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16313,7 +16313,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16360,7 +16360,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16410,7 +16410,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R299">
         <v>21</v>
@@ -16460,7 +16460,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16507,7 +16507,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16554,7 +16554,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16604,7 +16604,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R303">
         <v>14</v>
@@ -16657,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16707,7 +16707,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R305">
         <v>15</v>
@@ -16757,7 +16757,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16804,7 +16804,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16854,7 +16854,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R308">
         <v>23</v>
@@ -16907,7 +16907,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16957,7 +16957,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R310">
         <v>26</v>
@@ -17007,7 +17007,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17054,7 +17054,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17101,7 +17101,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17148,7 +17148,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17195,7 +17195,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17242,7 +17242,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17289,7 +17289,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17336,7 +17336,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17386,7 +17386,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R319">
         <v>24</v>
@@ -17436,7 +17436,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17486,7 +17486,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R321">
         <v>10</v>
@@ -17539,7 +17539,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R322">
         <v>20</v>
@@ -17589,7 +17589,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17633,7 +17633,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17680,7 +17680,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17727,7 +17727,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17774,7 +17774,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17821,7 +17821,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17871,7 +17871,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R329">
         <v>28</v>
@@ -17921,7 +17921,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -17968,7 +17968,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18015,7 +18015,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18062,7 +18062,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18109,7 +18109,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18159,7 +18159,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18206,7 +18206,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18253,7 +18253,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18300,7 +18300,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18347,7 +18347,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18397,7 +18397,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R340">
         <v>28</v>
@@ -18447,7 +18447,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18494,7 +18494,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18541,7 +18541,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18588,7 +18588,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18635,7 +18635,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18682,7 +18682,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18729,7 +18729,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18776,7 +18776,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18826,7 +18826,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R349">
         <v>26</v>
@@ -18879,7 +18879,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18929,7 +18929,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R351">
         <v>16</v>
@@ -18979,7 +18979,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19026,7 +19026,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19076,7 +19076,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19123,7 +19123,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19170,7 +19170,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19217,7 +19217,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19267,7 +19267,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R358">
         <v>23</v>
@@ -19317,7 +19317,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19370,7 +19370,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R360">
         <v>17</v>
@@ -19420,7 +19420,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19470,7 +19470,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R362">
         <v>10</v>
@@ -19523,7 +19523,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19570,7 +19570,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19620,7 +19620,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19670,7 +19670,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R366">
         <v>27</v>
@@ -19726,7 +19726,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R367">
         <v>1</v>
@@ -19770,10 +19770,10 @@
         <v>1</v>
       </c>
       <c r="P368" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q368">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19814,10 +19814,10 @@
         <v>1</v>
       </c>
       <c r="P369" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q369">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19867,7 +19867,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R370">
         <v>8</v>
@@ -19917,7 +19917,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -19964,7 +19964,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20014,7 +20014,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R373">
         <v>0</v>
@@ -20067,7 +20067,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20117,7 +20117,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R375">
         <v>19</v>
@@ -20170,7 +20170,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20217,7 +20217,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20264,7 +20264,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20311,7 +20311,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20361,7 +20361,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R380">
         <v>15</v>
@@ -20414,7 +20414,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R381">
         <v>10</v>
@@ -20464,7 +20464,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20511,7 +20511,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20561,7 +20561,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R384">
         <v>21</v>
@@ -20614,7 +20614,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20664,7 +20664,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R386">
         <v>10</v>
@@ -20714,7 +20714,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20764,7 +20764,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R388">
         <v>16</v>
@@ -20817,7 +20817,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20867,7 +20867,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R390">
         <v>19</v>
@@ -20920,7 +20920,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R391">
         <v>21</v>
@@ -20970,7 +20970,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21020,7 +21020,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R393">
         <v>5</v>
@@ -21070,7 +21070,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21114,7 +21114,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21164,7 +21164,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R396">
         <v>20</v>
@@ -21214,7 +21214,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21264,7 +21264,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R398">
         <v>22</v>
@@ -21314,7 +21314,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21364,7 +21364,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R400">
         <v>6</v>
@@ -21414,7 +21414,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21461,7 +21461,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21508,7 +21508,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21555,7 +21555,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21602,7 +21602,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21652,7 +21652,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R406">
         <v>33</v>
@@ -21705,7 +21705,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R407">
         <v>25</v>
@@ -21755,7 +21755,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21805,7 +21805,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R409">
         <v>11</v>
@@ -21858,7 +21858,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21908,7 +21908,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R411">
         <v>23</v>
@@ -21958,7 +21958,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22008,7 +22008,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22058,7 +22058,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R414">
         <v>8</v>
@@ -22108,7 +22108,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22155,7 +22155,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22202,7 +22202,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22249,7 +22249,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22296,7 +22296,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22343,7 +22343,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22390,7 +22390,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22437,7 +22437,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22484,7 +22484,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22534,7 +22534,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R424">
         <v>31</v>
@@ -22587,7 +22587,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R425">
         <v>13</v>
@@ -22640,7 +22640,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22690,7 +22690,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R427">
         <v>17</v>
@@ -22740,7 +22740,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22787,7 +22787,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22881,7 +22881,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22928,7 +22928,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22975,7 +22975,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23022,7 +23022,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23072,7 +23072,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R435">
         <v>23</v>
@@ -23125,7 +23125,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23172,7 +23172,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23219,7 +23219,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23313,7 +23313,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23360,7 +23360,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23410,7 +23410,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R442">
         <v>25</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23510,7 +23510,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R444">
         <v>23</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23613,7 +23613,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R446">
         <v>23</v>
@@ -23666,7 +23666,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23716,7 +23716,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R448">
         <v>9</v>
@@ -23769,7 +23769,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23816,7 +23816,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23863,7 +23863,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23957,7 +23957,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24007,7 +24007,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R454">
         <v>23</v>
@@ -24060,7 +24060,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24110,7 +24110,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R456">
         <v>20</v>
@@ -24160,7 +24160,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24207,7 +24207,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24257,7 +24257,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R459">
         <v>0</v>
@@ -24310,7 +24310,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24357,7 +24357,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24404,7 +24404,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24454,7 +24454,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R463">
         <v>22</v>
@@ -24507,7 +24507,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R464">
         <v>21</v>
@@ -24557,7 +24557,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24704,7 +24704,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R468">
         <v>24</v>
@@ -24757,7 +24757,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24807,7 +24807,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R470">
         <v>5</v>
@@ -24857,7 +24857,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24907,7 +24907,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R472">
         <v>6</v>
@@ -24960,7 +24960,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25010,7 +25010,7 @@
         <v>1</v>
       </c>
       <c r="Q474">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R474">
         <v>5</v>
@@ -25066,7 +25066,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R475">
         <v>3</v>
@@ -25110,10 +25110,10 @@
         <v>1</v>
       </c>
       <c r="P476" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q476">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25154,7 +25154,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
